--- a/world_cup_2018.xlsx
+++ b/world_cup_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E1321B-1FF5-4FB5-AFB5-3B0CD6EB0D98}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB02733A-3E96-4DE1-AD42-2E1465912F60}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11235" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T" sheetId="1" state="hidden" r:id="rId1"/>
@@ -9233,90 +9233,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -9395,6 +9311,90 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -29669,8 +29669,8 @@
   </sheetPr>
   <dimension ref="A1:BT97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29725,25 +29725,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:72" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="134" t="str">
+      <c r="A1" s="113" t="str">
         <f>INDEX(T,2,lang)</f>
         <v>2018 World Cup Final Tournament Schedule</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="134"/>
-      <c r="O1" s="134"/>
-      <c r="P1" s="134"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
       <c r="S1" s="54"/>
       <c r="T1" s="54"/>
       <c r="U1" s="54"/>
@@ -29806,11 +29806,11 @@
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
-      <c r="O3" s="135" t="str">
+      <c r="O3" s="114" t="str">
         <f>"Language: " &amp; Settings!C4</f>
         <v>Language: English</v>
       </c>
-      <c r="P3" s="135"/>
+      <c r="P3" s="114"/>
       <c r="S3" s="54"/>
       <c r="T3" s="54"/>
       <c r="U3" s="54"/>
@@ -29836,43 +29836,43 @@
     </row>
     <row r="4" spans="1:72" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="136" t="str">
+      <c r="A5" s="115" t="str">
         <f>INDEX(T,3,lang)</f>
         <v>Group Stage</v>
       </c>
-      <c r="B5" s="137"/>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="137"/>
-      <c r="F5" s="137"/>
-      <c r="G5" s="137"/>
-      <c r="H5" s="138"/>
-      <c r="J5" s="142" t="s">
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="117"/>
+      <c r="J5" s="121" t="s">
         <v>2181</v>
       </c>
-      <c r="K5" s="143"/>
-      <c r="L5" s="143"/>
-      <c r="M5" s="143"/>
-      <c r="N5" s="143"/>
-      <c r="O5" s="143"/>
-      <c r="P5" s="144"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="122"/>
+      <c r="O5" s="122"/>
+      <c r="P5" s="123"/>
     </row>
     <row r="6" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="139"/>
-      <c r="B6" s="140"/>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="141"/>
-      <c r="J6" s="145"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="146"/>
-      <c r="M6" s="146"/>
-      <c r="N6" s="146"/>
-      <c r="O6" s="146"/>
-      <c r="P6" s="147"/>
+      <c r="A6" s="118"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="120"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="125"/>
+      <c r="M6" s="125"/>
+      <c r="N6" s="125"/>
+      <c r="O6" s="125"/>
+      <c r="P6" s="126"/>
       <c r="R6" s="54" t="s">
         <v>2182</v>
       </c>
@@ -29936,34 +29936,34 @@
       <c r="AT6" s="58" t="s">
         <v>2189</v>
       </c>
-      <c r="AY6" s="128" t="str">
+      <c r="AY6" s="107" t="str">
         <f>INDEX(T,4,lang)</f>
         <v>Round of 16</v>
       </c>
-      <c r="AZ6" s="129"/>
-      <c r="BA6" s="129"/>
-      <c r="BB6" s="130"/>
-      <c r="BE6" s="128" t="str">
+      <c r="AZ6" s="108"/>
+      <c r="BA6" s="108"/>
+      <c r="BB6" s="109"/>
+      <c r="BE6" s="107" t="str">
         <f>INDEX(T,5,lang)</f>
         <v>Quarterfinals</v>
       </c>
-      <c r="BF6" s="129"/>
-      <c r="BG6" s="129"/>
-      <c r="BH6" s="130"/>
-      <c r="BK6" s="128" t="str">
+      <c r="BF6" s="108"/>
+      <c r="BG6" s="108"/>
+      <c r="BH6" s="109"/>
+      <c r="BK6" s="107" t="str">
         <f>INDEX(T,6,lang)</f>
         <v>Semi-Finals</v>
       </c>
-      <c r="BL6" s="129"/>
-      <c r="BM6" s="129"/>
-      <c r="BN6" s="130"/>
-      <c r="BQ6" s="128" t="str">
+      <c r="BL6" s="108"/>
+      <c r="BM6" s="108"/>
+      <c r="BN6" s="109"/>
+      <c r="BQ6" s="107" t="str">
         <f>INDEX(T,8,lang)</f>
         <v>Final</v>
       </c>
-      <c r="BR6" s="129"/>
-      <c r="BS6" s="129"/>
-      <c r="BT6" s="130"/>
+      <c r="BR6" s="108"/>
+      <c r="BS6" s="108"/>
+      <c r="BT6" s="109"/>
     </row>
     <row r="7" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
@@ -30027,22 +30027,22 @@
         <f>IF(OR(F7="",G7=""),"",IF(F7&gt;G7,1,IF(F7&lt;G7,-1,0)))</f>
         <v>1</v>
       </c>
-      <c r="AY7" s="131"/>
-      <c r="AZ7" s="132"/>
-      <c r="BA7" s="132"/>
-      <c r="BB7" s="133"/>
-      <c r="BE7" s="131"/>
-      <c r="BF7" s="132"/>
-      <c r="BG7" s="132"/>
-      <c r="BH7" s="133"/>
-      <c r="BK7" s="131"/>
-      <c r="BL7" s="132"/>
-      <c r="BM7" s="132"/>
-      <c r="BN7" s="133"/>
-      <c r="BQ7" s="131"/>
-      <c r="BR7" s="132"/>
-      <c r="BS7" s="132"/>
-      <c r="BT7" s="133"/>
+      <c r="AY7" s="110"/>
+      <c r="AZ7" s="111"/>
+      <c r="BA7" s="111"/>
+      <c r="BB7" s="112"/>
+      <c r="BE7" s="110"/>
+      <c r="BF7" s="111"/>
+      <c r="BG7" s="111"/>
+      <c r="BH7" s="112"/>
+      <c r="BK7" s="110"/>
+      <c r="BL7" s="111"/>
+      <c r="BM7" s="111"/>
+      <c r="BN7" s="112"/>
+      <c r="BQ7" s="110"/>
+      <c r="BR7" s="111"/>
+      <c r="BS7" s="111"/>
+      <c r="BT7" s="112"/>
     </row>
     <row r="8" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
@@ -30588,7 +30588,7 @@
         <f>AR10-AS10</f>
         <v>0</v>
       </c>
-      <c r="AY10" s="116">
+      <c r="AY10" s="127">
         <v>49</v>
       </c>
       <c r="AZ10" s="26" t="str">
@@ -30782,7 +30782,7 @@
         <f>AR11-AS11</f>
         <v>0</v>
       </c>
-      <c r="AY11" s="117"/>
+      <c r="AY11" s="128"/>
       <c r="AZ11" s="28" t="str">
         <f>AO15</f>
         <v>2B</v>
@@ -30963,7 +30963,7 @@
       <c r="BB12" s="23"/>
       <c r="BC12" s="32"/>
       <c r="BD12" s="23"/>
-      <c r="BE12" s="116">
+      <c r="BE12" s="127">
         <v>57</v>
       </c>
       <c r="BF12" s="26" t="str">
@@ -31071,7 +31071,7 @@
       <c r="BB13" s="31"/>
       <c r="BC13" s="32"/>
       <c r="BD13" s="35"/>
-      <c r="BE13" s="117"/>
+      <c r="BE13" s="128"/>
       <c r="BF13" s="28" t="str">
         <f>T59</f>
         <v>W50</v>
@@ -31261,7 +31261,7 @@
         <f>AR14-AS14</f>
         <v>0</v>
       </c>
-      <c r="AY14" s="116">
+      <c r="AY14" s="127">
         <v>50</v>
       </c>
       <c r="AZ14" s="26" t="str">
@@ -31459,7 +31459,7 @@
         <f>AR15-AS15</f>
         <v>0</v>
       </c>
-      <c r="AY15" s="117"/>
+      <c r="AY15" s="128"/>
       <c r="AZ15" s="28" t="str">
         <f>AO27</f>
         <v>2D</v>
@@ -31666,7 +31666,7 @@
       <c r="BH16" s="23"/>
       <c r="BI16" s="32"/>
       <c r="BJ16" s="23"/>
-      <c r="BK16" s="116">
+      <c r="BK16" s="127">
         <v>61</v>
       </c>
       <c r="BL16" s="26" t="str">
@@ -31863,7 +31863,7 @@
       <c r="BH17" s="23"/>
       <c r="BI17" s="32"/>
       <c r="BJ17" s="35"/>
-      <c r="BK17" s="117"/>
+      <c r="BK17" s="128"/>
       <c r="BL17" s="28" t="str">
         <f>T70</f>
         <v>W58</v>
@@ -32023,7 +32023,7 @@
         <f>MAX(AT14:AT17)-MIN(AT14:AT17)+1</f>
         <v>1</v>
       </c>
-      <c r="AY18" s="116">
+      <c r="AY18" s="127">
         <v>53</v>
       </c>
       <c r="AZ18" s="26" t="str">
@@ -32128,7 +32128,7 @@
         <f>MIN(AI14:AI17)</f>
         <v>-1</v>
       </c>
-      <c r="AY19" s="117"/>
+      <c r="AY19" s="128"/>
       <c r="AZ19" s="28" t="str">
         <f>AO39</f>
         <v>2F</v>
@@ -32333,7 +32333,7 @@
       <c r="BB20" s="23"/>
       <c r="BC20" s="32"/>
       <c r="BD20" s="23"/>
-      <c r="BE20" s="116">
+      <c r="BE20" s="127">
         <v>58</v>
       </c>
       <c r="BF20" s="26" t="str">
@@ -32375,7 +32375,9 @@
         <f>AB50</f>
         <v>Poland</v>
       </c>
-      <c r="F21" s="16"/>
+      <c r="F21" s="16">
+        <v>2</v>
+      </c>
       <c r="G21" s="17"/>
       <c r="H21" s="63" t="str">
         <f>AB51</f>
@@ -32530,7 +32532,7 @@
       <c r="BB21" s="31"/>
       <c r="BC21" s="32"/>
       <c r="BD21" s="35"/>
-      <c r="BE21" s="117"/>
+      <c r="BE21" s="128"/>
       <c r="BF21" s="28" t="str">
         <f>T63</f>
         <v>W54</v>
@@ -32712,7 +32714,7 @@
         <f>AR22-AS22</f>
         <v>0</v>
       </c>
-      <c r="AY22" s="116">
+      <c r="AY22" s="127">
         <v>54</v>
       </c>
       <c r="AZ22" s="26" t="str">
@@ -32905,7 +32907,7 @@
         <f>AR23-AS23</f>
         <v>0</v>
       </c>
-      <c r="AY23" s="117"/>
+      <c r="AY23" s="128"/>
       <c r="AZ23" s="28" t="str">
         <f>AO51</f>
         <v>2H</v>
@@ -32926,7 +32928,7 @@
       <c r="BN23" s="23"/>
       <c r="BO23" s="32"/>
       <c r="BP23" s="23"/>
-      <c r="BQ23" s="116">
+      <c r="BQ23" s="127">
         <v>64</v>
       </c>
       <c r="BR23" s="26" t="str">
@@ -33095,7 +33097,7 @@
       <c r="BN24" s="23"/>
       <c r="BO24" s="32"/>
       <c r="BP24" s="35"/>
-      <c r="BQ24" s="117"/>
+      <c r="BQ24" s="128"/>
       <c r="BR24" s="28" t="str">
         <f>T77</f>
         <v>W62</v>
@@ -33368,7 +33370,7 @@
         <f>AR26-AS26</f>
         <v>0</v>
       </c>
-      <c r="AY26" s="116">
+      <c r="AY26" s="127">
         <v>51</v>
       </c>
       <c r="AZ26" s="26" t="str">
@@ -33562,7 +33564,7 @@
         <f>AR27-AS27</f>
         <v>0</v>
       </c>
-      <c r="AY27" s="117"/>
+      <c r="AY27" s="128"/>
       <c r="AZ27" s="28" t="str">
         <f>AO9</f>
         <v>2A</v>
@@ -33759,7 +33761,7 @@
       <c r="BB28" s="23"/>
       <c r="BC28" s="32"/>
       <c r="BD28" s="23"/>
-      <c r="BE28" s="116">
+      <c r="BE28" s="127">
         <v>59</v>
       </c>
       <c r="BF28" s="26" t="str">
@@ -33952,7 +33954,7 @@
       <c r="BB29" s="31"/>
       <c r="BC29" s="32"/>
       <c r="BD29" s="35"/>
-      <c r="BE29" s="117"/>
+      <c r="BE29" s="128"/>
       <c r="BF29" s="28" t="str">
         <f>T61</f>
         <v>W52</v>
@@ -34114,7 +34116,7 @@
         <f>MAX(AT26:AT29)-MIN(AT26:AT29)+1</f>
         <v>1</v>
       </c>
-      <c r="AY30" s="116">
+      <c r="AY30" s="127">
         <v>52</v>
       </c>
       <c r="AZ30" s="26" t="str">
@@ -34208,7 +34210,7 @@
         <f>MIN(AI26:AI29)</f>
         <v>-2</v>
       </c>
-      <c r="AY31" s="117"/>
+      <c r="AY31" s="128"/>
       <c r="AZ31" s="28" t="str">
         <f>AO21</f>
         <v>2C</v>
@@ -34232,13 +34234,13 @@
       <c r="BN31" s="31"/>
       <c r="BO31" s="32"/>
       <c r="BP31" s="37"/>
-      <c r="BQ31" s="122" t="str">
+      <c r="BQ31" s="129" t="str">
         <f>INDEX(T,7,lang)</f>
         <v>Third-Place Play-Off</v>
       </c>
-      <c r="BR31" s="123"/>
-      <c r="BS31" s="123"/>
-      <c r="BT31" s="124"/>
+      <c r="BR31" s="130"/>
+      <c r="BS31" s="130"/>
+      <c r="BT31" s="131"/>
     </row>
     <row r="32" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
@@ -34418,7 +34420,7 @@
       <c r="BH32" s="23"/>
       <c r="BI32" s="32"/>
       <c r="BJ32" s="23"/>
-      <c r="BK32" s="116">
+      <c r="BK32" s="127">
         <v>62</v>
       </c>
       <c r="BL32" s="26" t="str">
@@ -34429,10 +34431,10 @@
       <c r="BN32" s="106"/>
       <c r="BO32" s="36"/>
       <c r="BP32" s="37"/>
-      <c r="BQ32" s="125"/>
-      <c r="BR32" s="126"/>
-      <c r="BS32" s="126"/>
-      <c r="BT32" s="127"/>
+      <c r="BQ32" s="132"/>
+      <c r="BR32" s="133"/>
+      <c r="BS32" s="133"/>
+      <c r="BT32" s="134"/>
     </row>
     <row r="33" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18">
@@ -34615,7 +34617,7 @@
       <c r="BH33" s="23"/>
       <c r="BI33" s="32"/>
       <c r="BJ33" s="35"/>
-      <c r="BK33" s="117"/>
+      <c r="BK33" s="128"/>
       <c r="BL33" s="28" t="str">
         <f>T72</f>
         <v>W60</v>
@@ -34791,7 +34793,7 @@
         <f>AR34-AS34</f>
         <v>0</v>
       </c>
-      <c r="AY34" s="116">
+      <c r="AY34" s="127">
         <v>55</v>
       </c>
       <c r="AZ34" s="26" t="str">
@@ -34984,7 +34986,7 @@
         <f>AR35-AS35</f>
         <v>0</v>
       </c>
-      <c r="AY35" s="117"/>
+      <c r="AY35" s="128"/>
       <c r="AZ35" s="28" t="str">
         <f>AO33</f>
         <v>2E</v>
@@ -35008,7 +35010,7 @@
       <c r="BN35" s="23"/>
       <c r="BO35" s="23"/>
       <c r="BP35" s="23"/>
-      <c r="BQ35" s="116">
+      <c r="BQ35" s="127">
         <v>63</v>
       </c>
       <c r="BR35" s="26" t="str">
@@ -35166,7 +35168,7 @@
       <c r="BB36" s="23"/>
       <c r="BC36" s="32"/>
       <c r="BD36" s="23"/>
-      <c r="BE36" s="116">
+      <c r="BE36" s="127">
         <v>60</v>
       </c>
       <c r="BF36" s="26" t="str">
@@ -35183,7 +35185,7 @@
       <c r="BN36" s="23"/>
       <c r="BO36" s="23"/>
       <c r="BP36" s="23"/>
-      <c r="BQ36" s="117"/>
+      <c r="BQ36" s="128"/>
       <c r="BR36" s="28" t="str">
         <f>Z77</f>
         <v>L62</v>
@@ -35266,7 +35268,7 @@
       <c r="BB37" s="31"/>
       <c r="BC37" s="32"/>
       <c r="BD37" s="35"/>
-      <c r="BE37" s="117"/>
+      <c r="BE37" s="128"/>
       <c r="BF37" s="28" t="str">
         <f>T65</f>
         <v>W56</v>
@@ -35452,7 +35454,7 @@
         <f>AR38-AS38</f>
         <v>0</v>
       </c>
-      <c r="AY38" s="116">
+      <c r="AY38" s="127">
         <v>56</v>
       </c>
       <c r="AZ38" s="26" t="str">
@@ -35642,7 +35644,7 @@
         <f>AR39-AS39</f>
         <v>0</v>
       </c>
-      <c r="AY39" s="117"/>
+      <c r="AY39" s="128"/>
       <c r="AZ39" s="28" t="str">
         <f>AO45</f>
         <v>2G</v>
@@ -35987,23 +35989,23 @@
         <f>AR41-AS41</f>
         <v>0</v>
       </c>
-      <c r="BJ41" s="118" t="str">
+      <c r="BJ41" s="144" t="str">
         <f>INDEX(T,102,lang)</f>
         <v>World Champion 2018</v>
       </c>
-      <c r="BK41" s="118"/>
-      <c r="BL41" s="118"/>
-      <c r="BM41" s="118"/>
-      <c r="BN41" s="118"/>
-      <c r="BO41" s="120" t="str">
+      <c r="BK41" s="144"/>
+      <c r="BL41" s="144"/>
+      <c r="BM41" s="144"/>
+      <c r="BN41" s="144"/>
+      <c r="BO41" s="146" t="str">
         <f>S85</f>
         <v/>
       </c>
-      <c r="BP41" s="120"/>
-      <c r="BQ41" s="120"/>
-      <c r="BR41" s="120"/>
-      <c r="BS41" s="120"/>
-      <c r="BT41" s="120"/>
+      <c r="BP41" s="146"/>
+      <c r="BQ41" s="146"/>
+      <c r="BR41" s="146"/>
+      <c r="BS41" s="146"/>
+      <c r="BT41" s="146"/>
     </row>
     <row r="42" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="18">
@@ -36147,17 +36149,17 @@
         <f>MAX(AT38:AT41)-MIN(AT38:AT41)+1</f>
         <v>1</v>
       </c>
-      <c r="BJ42" s="119"/>
-      <c r="BK42" s="119"/>
-      <c r="BL42" s="119"/>
-      <c r="BM42" s="119"/>
-      <c r="BN42" s="119"/>
-      <c r="BO42" s="121"/>
-      <c r="BP42" s="121"/>
-      <c r="BQ42" s="121"/>
-      <c r="BR42" s="121"/>
-      <c r="BS42" s="121"/>
-      <c r="BT42" s="121"/>
+      <c r="BJ42" s="145"/>
+      <c r="BK42" s="145"/>
+      <c r="BL42" s="145"/>
+      <c r="BM42" s="145"/>
+      <c r="BN42" s="145"/>
+      <c r="BO42" s="147"/>
+      <c r="BP42" s="147"/>
+      <c r="BQ42" s="147"/>
+      <c r="BR42" s="147"/>
+      <c r="BS42" s="147"/>
+      <c r="BT42" s="147"/>
     </row>
     <row r="43" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18">
@@ -36723,12 +36725,12 @@
         <f>AR46-AS46</f>
         <v>0</v>
       </c>
-      <c r="AY46" s="107" t="s">
+      <c r="AY46" s="135" t="s">
         <v>2231</v>
       </c>
-      <c r="AZ46" s="108"/>
-      <c r="BA46" s="108"/>
-      <c r="BB46" s="109"/>
+      <c r="AZ46" s="136"/>
+      <c r="BA46" s="136"/>
+      <c r="BB46" s="137"/>
     </row>
     <row r="47" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="18">
@@ -36892,10 +36894,10 @@
         <f>AR47-AS47</f>
         <v>0</v>
       </c>
-      <c r="AY47" s="110"/>
-      <c r="AZ47" s="111"/>
-      <c r="BA47" s="111"/>
-      <c r="BB47" s="112"/>
+      <c r="AY47" s="138"/>
+      <c r="AZ47" s="139"/>
+      <c r="BA47" s="139"/>
+      <c r="BB47" s="140"/>
     </row>
     <row r="48" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="18">
@@ -37039,10 +37041,10 @@
         <f>MAX(AT44:AT47)-MIN(AT44:AT47)+1</f>
         <v>1</v>
       </c>
-      <c r="AY48" s="110"/>
-      <c r="AZ48" s="111"/>
-      <c r="BA48" s="111"/>
-      <c r="BB48" s="112"/>
+      <c r="AY48" s="138"/>
+      <c r="AZ48" s="139"/>
+      <c r="BA48" s="139"/>
+      <c r="BB48" s="140"/>
     </row>
     <row r="49" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="18">
@@ -37110,10 +37112,10 @@
         <f>MIN(AI44:AI47)</f>
         <v>-3</v>
       </c>
-      <c r="AY49" s="110"/>
-      <c r="AZ49" s="111"/>
-      <c r="BA49" s="111"/>
-      <c r="BB49" s="112"/>
+      <c r="AY49" s="138"/>
+      <c r="AZ49" s="139"/>
+      <c r="BA49" s="139"/>
+      <c r="BB49" s="140"/>
     </row>
     <row r="50" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="18">
@@ -37223,7 +37225,7 @@
       </c>
       <c r="AF50" s="54">
         <f>SUMIF($E$7:$E$54,$AB50,$F$7:$F$54) + SUMIF($H$7:$H$54,$AB50,$G$7:$G$54)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG50" s="54">
         <f>SUMIF($E$7:$E$54,$AB50,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB50,$F$7:$F$54)</f>
@@ -37231,15 +37233,15 @@
       </c>
       <c r="AH50" s="54">
         <f>(AF50-AG50)*100+AK50*10000+AF50</f>
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="AI50" s="54">
         <f>AF50-AG50</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ50" s="54">
         <f>(AI50-AI55)/AI54</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AK50" s="54">
         <f>AC50*3+AD50</f>
@@ -37255,7 +37257,7 @@
       </c>
       <c r="AN50" s="55">
         <f>1000*AK50/AK54+100*AJ50+10*AF50/AF54+1*AL50/AL54+AM50</f>
-        <v>6.045E-4</v>
+        <v>86.667271166666666</v>
       </c>
       <c r="AO50" s="56" t="str">
         <f>IF(SUM(AC50:AE53)=12,J51,INDEX(T,84,lang))</f>
@@ -37281,10 +37283,10 @@
         <f>AR50-AS50</f>
         <v>0</v>
       </c>
-      <c r="AY50" s="110"/>
-      <c r="AZ50" s="111"/>
-      <c r="BA50" s="111"/>
-      <c r="BB50" s="112"/>
+      <c r="AY50" s="138"/>
+      <c r="AZ50" s="139"/>
+      <c r="BA50" s="139"/>
+      <c r="BB50" s="140"/>
     </row>
     <row r="51" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="18">
@@ -37334,7 +37336,7 @@
       </c>
       <c r="O51" s="66" t="str">
         <f>VLOOKUP(1,AA50:AK53,6,FALSE) &amp; " - " &amp; VLOOKUP(1,AA50:AK53,7,FALSE)</f>
-        <v>0 - 0</v>
+        <v>2 - 0</v>
       </c>
       <c r="P51" s="67">
         <f>L51*3+M51</f>
@@ -37374,7 +37376,7 @@
       </c>
       <c r="AA51" s="54">
         <f>COUNTIF(AN50:AN53,CONCATENATE("&gt;=",AN51))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB51" s="55" t="str">
         <f>VLOOKUP("Senegal",T,lang,FALSE)</f>
@@ -37398,15 +37400,15 @@
       </c>
       <c r="AG51" s="54">
         <f>SUMIF($E$7:$E$54,$AB51,$G$7:$G$54) + SUMIF($H$7:$H$54,$AB51,$F$7:$F$54)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH51" s="54">
         <f>(AF51-AG51)*100+AK51*10000+AF51</f>
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="AI51" s="54">
         <f>AF51-AG51</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ51" s="54">
         <f>(AI51-AI55)/AI54</f>
@@ -37452,10 +37454,10 @@
         <f>AR51-AS51</f>
         <v>0</v>
       </c>
-      <c r="AY51" s="110"/>
-      <c r="AZ51" s="111"/>
-      <c r="BA51" s="111"/>
-      <c r="BB51" s="112"/>
+      <c r="AY51" s="138"/>
+      <c r="AZ51" s="139"/>
+      <c r="BA51" s="139"/>
+      <c r="BB51" s="140"/>
     </row>
     <row r="52" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="18">
@@ -37581,7 +37583,7 @@
       </c>
       <c r="AJ52" s="54">
         <f>(AI52-AI55)/AI54</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AK52" s="54">
         <f>AC52*3+AD52</f>
@@ -37597,7 +37599,7 @@
       </c>
       <c r="AN52" s="55">
         <f>1000*AK52/AK54+100*AJ52+10*AF52/AF54+1*AL52/AL54+AM52</f>
-        <v>5.3899999999999998E-4</v>
+        <v>40.000539000000003</v>
       </c>
       <c r="AP52" s="57">
         <f>SUMPRODUCT(($S$7:$S$54=AB52&amp;"_win")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB52&amp;"_win")*($U$7:$U$54))</f>
@@ -37619,10 +37621,10 @@
         <f>AR52-AS52</f>
         <v>0</v>
       </c>
-      <c r="AY52" s="113"/>
-      <c r="AZ52" s="114"/>
-      <c r="BA52" s="114"/>
-      <c r="BB52" s="115"/>
+      <c r="AY52" s="141"/>
+      <c r="AZ52" s="142"/>
+      <c r="BA52" s="142"/>
+      <c r="BB52" s="143"/>
     </row>
     <row r="53" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="18">
@@ -37652,7 +37654,7 @@
       </c>
       <c r="J53" s="68" t="str">
         <f>VLOOKUP(3,AA50:AK53,2,FALSE)</f>
-        <v>Senegal</v>
+        <v>Japan</v>
       </c>
       <c r="K53" s="25">
         <f>L53+M53+N53</f>
@@ -37712,7 +37714,7 @@
       </c>
       <c r="AA53" s="54">
         <f>COUNTIF(AN50:AN53,CONCATENATE("&gt;=",AN53))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB53" s="55" t="str">
         <f>VLOOKUP("Japan",T,lang,FALSE)</f>
@@ -37748,7 +37750,7 @@
       </c>
       <c r="AJ53" s="54">
         <f>(AI53-AI55)/AI54</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AK53" s="54">
         <f>AC53*3+AD53</f>
@@ -37764,7 +37766,7 @@
       </c>
       <c r="AN53" s="55">
         <f>1000*AK53/AK54+100*AJ53+10*AF53/AF54+1*AL53/AL54+AM53</f>
-        <v>2.9999999999999997E-4</v>
+        <v>40.000300000000003</v>
       </c>
       <c r="AP53" s="57">
         <f>SUMPRODUCT(($S$7:$S$54=AB53&amp;"_win")*($U$7:$U$54))+SUMPRODUCT(($T$7:$T$54=AB53&amp;"_win")*($U$7:$U$54))</f>
@@ -37815,7 +37817,7 @@
       </c>
       <c r="J54" s="70" t="str">
         <f>VLOOKUP(4,AA50:AK53,2,FALSE)</f>
-        <v>Japan</v>
+        <v>Senegal</v>
       </c>
       <c r="K54" s="71">
         <f>L54+M54+N54</f>
@@ -37835,7 +37837,7 @@
       </c>
       <c r="O54" s="71" t="str">
         <f>VLOOKUP(4,AA50:AK53,6,FALSE) &amp; " - " &amp; VLOOKUP(4,AA50:AK53,7,FALSE)</f>
-        <v>0 - 0</v>
+        <v>0 - 2</v>
       </c>
       <c r="P54" s="72">
         <f>L54*3+M54</f>
@@ -37887,19 +37889,19 @@
       </c>
       <c r="AF54" s="54">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG54" s="54">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH54" s="54">
         <f>MAX(AH50:AH53)-AH55+1</f>
-        <v>1</v>
+        <v>403</v>
       </c>
       <c r="AI54" s="54">
         <f>MAX(AI50:AI53)-AI55+1</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AK54" s="54">
         <f t="shared" si="17"/>
@@ -37949,11 +37951,11 @@
       <c r="P55" s="45"/>
       <c r="AH55" s="54">
         <f>MIN(AH50:AH53)</f>
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="AI55" s="54">
         <f>MIN(AI50:AI53)</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="56" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -38211,27 +38213,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="PAglMCMPk026QNImqs5vht8iXkHMK+l+My+2rfGLtRZkio8JaaxdUcv1sFv6JUjNu8x8GCTRGfRxZo4OzEC8MA==" saltValue="oAWGgK7w1lThPFYybvkV5g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="28">
-    <mergeCell ref="BQ6:BT7"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="A5:H6"/>
-    <mergeCell ref="J5:P6"/>
-    <mergeCell ref="AY10:AY11"/>
-    <mergeCell ref="BE12:BE13"/>
-    <mergeCell ref="AY6:BB7"/>
-    <mergeCell ref="BE6:BH7"/>
-    <mergeCell ref="BK6:BN7"/>
-    <mergeCell ref="AY22:AY23"/>
-    <mergeCell ref="BQ23:BQ24"/>
-    <mergeCell ref="AY18:AY19"/>
-    <mergeCell ref="BE20:BE21"/>
-    <mergeCell ref="AY14:AY15"/>
-    <mergeCell ref="BK16:BK17"/>
-    <mergeCell ref="AY30:AY31"/>
-    <mergeCell ref="BQ31:BT32"/>
-    <mergeCell ref="BK32:BK33"/>
-    <mergeCell ref="AY26:AY27"/>
-    <mergeCell ref="BE28:BE29"/>
     <mergeCell ref="AY46:BB52"/>
     <mergeCell ref="AY38:AY39"/>
     <mergeCell ref="BJ41:BN42"/>
@@ -38239,6 +38220,27 @@
     <mergeCell ref="BQ35:BQ36"/>
     <mergeCell ref="BE36:BE37"/>
     <mergeCell ref="BO41:BT42"/>
+    <mergeCell ref="AY30:AY31"/>
+    <mergeCell ref="BQ31:BT32"/>
+    <mergeCell ref="BK32:BK33"/>
+    <mergeCell ref="AY26:AY27"/>
+    <mergeCell ref="BE28:BE29"/>
+    <mergeCell ref="AY22:AY23"/>
+    <mergeCell ref="BQ23:BQ24"/>
+    <mergeCell ref="AY18:AY19"/>
+    <mergeCell ref="BE20:BE21"/>
+    <mergeCell ref="AY14:AY15"/>
+    <mergeCell ref="BK16:BK17"/>
+    <mergeCell ref="AY10:AY11"/>
+    <mergeCell ref="BE12:BE13"/>
+    <mergeCell ref="AY6:BB7"/>
+    <mergeCell ref="BE6:BH7"/>
+    <mergeCell ref="BK6:BN7"/>
+    <mergeCell ref="BQ6:BT7"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="A5:H6"/>
+    <mergeCell ref="J5:P6"/>
   </mergeCells>
   <conditionalFormatting sqref="F7 F55">
     <cfRule type="expression" dxfId="119" priority="48" stopIfTrue="1">
@@ -38997,7 +38999,7 @@
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>+'2018 World Cup'!F21</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B19">
         <f>+'2018 World Cup'!G21</f>
@@ -39005,7 +39007,7 @@
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -39743,13 +39745,13 @@
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f>+'2018 World Cup'!J53</f>
-        <v>Senegal</v>
+        <v>Japan</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f>+'2018 World Cup'!J54</f>
-        <v>Japan</v>
+        <v>Senegal</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
